--- a/Order Data.xlsx
+++ b/Order Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI184"/>
+  <dimension ref="A1:AI190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5933,7 +5933,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>CANCELLED</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -14546,7 +14546,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -14659,7 +14659,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>IN LOOM</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -17650,7 +17650,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>NEEL KAMAL GLOBE FAB</t>
+          <t>NEELKAMAL GLOBE FAB</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>NEEL KAMAL GLOBE FAB</t>
+          <t>NEELKAMAL GLOBE FAB</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -17852,7 +17852,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>NEEL KAMAL GLOBE FAB</t>
+          <t>NEELKAMAL GLOBE FAB</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -17965,7 +17965,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>NEEL KAMAL GLOBE FAB</t>
+          <t>NEELKAMAL GLOBE FAB</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -18078,7 +18078,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>NEEL KAMAL GLOBE FAB</t>
+          <t>NEELKAMAL GLOBE FAB</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -18179,7 +18179,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>NEEL KAMAL GLOBE FAB</t>
+          <t>NEELKAMAL GLOBE FAB</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>NEEL KAMAL GLOBE FAB</t>
+          <t>NEELKAMAL GLOBE FAB</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -18381,7 +18381,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>NEEL KAMAL GLOBE FAB</t>
+          <t>NEELKAMAL GLOBE FAB</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -18482,7 +18482,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>NEEL KAMAL GLOBE FAB</t>
+          <t>NEELKAMAL GLOBE FAB</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -18607,7 +18607,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>NEEL KAMAL GLOBE FAB</t>
+          <t>NEELKAMAL GLOBE FAB</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -19548,7 +19548,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -19563,12 +19563,12 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>245</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>LICHI</t>
+          <t>CREKAL</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -20216,6 +20216,708 @@
       <c r="AH184" t="inlineStr"/>
       <c r="AI184" t="inlineStr"/>
     </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>194</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>14/03/2022</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>KAMLESH</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>IN LOOM</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1408(3/1)</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>M45</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>50 BRIGHT</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>CREKAL</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>GAJRI</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>CREKAL</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>GAJRI</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>JUTH</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>VFD-9723</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="W185" t="inlineStr">
+        <is>
+          <t>PAL MAT</t>
+        </is>
+      </c>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr"/>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="inlineStr"/>
+      <c r="AC185" t="inlineStr"/>
+      <c r="AD185" t="inlineStr"/>
+      <c r="AE185" t="inlineStr"/>
+      <c r="AF185" t="inlineStr"/>
+      <c r="AG185" t="inlineStr"/>
+      <c r="AH185" t="inlineStr"/>
+      <c r="AI185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>195</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>14/03/2022</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>KAMLESH</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>IN LOOM</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1408(3/2)</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>M45</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>50 BRIGHT</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>CREKAL</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>YELLOW</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>CREKAL</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>YELLOW</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>JUTH</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>VFD-9723</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="W186" t="inlineStr">
+        <is>
+          <t>PAL MAT</t>
+        </is>
+      </c>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="inlineStr"/>
+      <c r="AD186" t="inlineStr"/>
+      <c r="AE186" t="inlineStr"/>
+      <c r="AF186" t="inlineStr"/>
+      <c r="AG186" t="inlineStr"/>
+      <c r="AH186" t="inlineStr"/>
+      <c r="AI186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>196</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>14/03/2022</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>KAMLESH</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>IN LOOM</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1408(3/3)</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>M45</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>50 BRIGHT</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>CREKAL</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>PISTA</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>CREKAL</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>PISTA</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>JUTH</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>VFD-9723</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>PAL MAT</t>
+        </is>
+      </c>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="inlineStr"/>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="inlineStr"/>
+      <c r="AC187" t="inlineStr"/>
+      <c r="AD187" t="inlineStr"/>
+      <c r="AE187" t="inlineStr"/>
+      <c r="AF187" t="inlineStr"/>
+      <c r="AG187" t="inlineStr"/>
+      <c r="AH187" t="inlineStr"/>
+      <c r="AI187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>197</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>24/03/2022</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>NEELKAMAL GLOBE FAB</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>SP111</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>50-BRIGHT</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>JUTH</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>SSM-4487</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>LICHI</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>MAROON</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="inlineStr"/>
+      <c r="AC188" t="inlineStr"/>
+      <c r="AD188" t="inlineStr"/>
+      <c r="AE188" t="inlineStr"/>
+      <c r="AF188" t="inlineStr"/>
+      <c r="AG188" t="inlineStr"/>
+      <c r="AH188" t="inlineStr"/>
+      <c r="AI188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>198</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>24/03/2022</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>NEELKAMAL GLOBE FAB</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>SP104</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>50-BRIGHT</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>LICHI</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>CREAM</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>CHARIPAL</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>CHAMPION</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>COLOUR-JUTH</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>MAROON</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="inlineStr"/>
+      <c r="AC189" t="inlineStr"/>
+      <c r="AD189" t="inlineStr"/>
+      <c r="AE189" t="inlineStr"/>
+      <c r="AF189" t="inlineStr"/>
+      <c r="AG189" t="inlineStr"/>
+      <c r="AH189" t="inlineStr"/>
+      <c r="AI189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>199</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>24/03/2022</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>NEELKAMAL GLOBE FAB</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>M-88</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>50-BRIGHT</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>LICHI</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>YELLOW</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>LICHI</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>YELLOW</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>CHARIPAL</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>CHAMPION</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="inlineStr"/>
+      <c r="AC190" t="inlineStr"/>
+      <c r="AD190" t="inlineStr"/>
+      <c r="AE190" t="inlineStr"/>
+      <c r="AF190" t="inlineStr"/>
+      <c r="AG190" t="inlineStr"/>
+      <c r="AH190" t="inlineStr"/>
+      <c r="AI190" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
